--- a/data/questions.xlsx
+++ b/data/questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JM\Documents\python_scripts\game_v1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JM\Documents\python_scripts\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78E074D-9750-4D8C-8B78-C0E88A4EB65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF46B90E-CFB8-43E3-BCD9-F1D34D80DF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="159">
   <si>
     <t>pergunta</t>
   </si>
@@ -49,25 +49,454 @@
     <t>Quem matou Golias?</t>
   </si>
   <si>
+    <t>Qual foi o sinal de Deus para Jonas?</t>
+  </si>
+  <si>
+    <t>Quem foi engolido por um peixe grande?</t>
+  </si>
+  <si>
+    <t>Qual profeta escreveu sobre a queda de Jerusalém?</t>
+  </si>
+  <si>
+    <t>Quem libertou o povo de Israel do Egito?</t>
+  </si>
+  <si>
+    <t>Quem foi o pai de Davi?</t>
+  </si>
+  <si>
+    <t>Qual livro não pertence ao Velho Testamento?</t>
+  </si>
+  <si>
+    <t>Qual livro pertence à Bíblia?</t>
+  </si>
+  <si>
+    <t>Quantos dias Jonas passou no ventre do peixe?</t>
+  </si>
+  <si>
+    <t>Quem dividiu o Mar Vermelho?</t>
+  </si>
+  <si>
+    <t>Quantas pragas Deus enviou ao Egito?</t>
+  </si>
+  <si>
+    <t>Quem foi salvo da fornalha ardente?</t>
+  </si>
+  <si>
+    <t>Quem foi o primeiro rei de Israel?</t>
+  </si>
+  <si>
+    <t>Qual era a profissão de Davi antes de ser rei?</t>
+  </si>
+  <si>
+    <t>Qual profeta foi enviado a Nínive?</t>
+  </si>
+  <si>
+    <t>Qual o nome do lugar onde Moisés recebeu os Dez Mandamentos?</t>
+  </si>
+  <si>
+    <t>Quem foi a mãe de Moisés?</t>
+  </si>
+  <si>
+    <t>Qual milagre Jesus realizou no casamento em Caná?</t>
+  </si>
+  <si>
+    <t>Quem foi o sucessor de Moisés?</t>
+  </si>
+  <si>
+    <t>Quem construiu a arca?</t>
+  </si>
+  <si>
     <t>Davi</t>
   </si>
   <si>
+    <t>Um peixe grande</t>
+  </si>
+  <si>
     <t>Moisés</t>
   </si>
   <si>
+    <t>Isaías</t>
+  </si>
+  <si>
     <t>Jonas</t>
   </si>
   <si>
+    <t>Jessé</t>
+  </si>
+  <si>
+    <t>Gênesis</t>
+  </si>
+  <si>
+    <t>Salmos</t>
+  </si>
+  <si>
+    <t>1 dia</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Sadraque, Mesaque e Abednego</t>
+  </si>
+  <si>
+    <t>Pescador</t>
+  </si>
+  <si>
     <t>Habacuque</t>
   </si>
   <si>
+    <t>Monte Horebe</t>
+  </si>
+  <si>
+    <t>Miriã</t>
+  </si>
+  <si>
+    <t>Curou um cego</t>
+  </si>
+  <si>
+    <t>Josué</t>
+  </si>
+  <si>
+    <t>Um arco-íris</t>
+  </si>
+  <si>
+    <t>Jeremias</t>
+  </si>
+  <si>
+    <t>Eliabe</t>
+  </si>
+  <si>
+    <t>Mateus</t>
+  </si>
+  <si>
+    <t>Epopeia de Gilgamesh</t>
+  </si>
+  <si>
+    <t>2 dias</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Davi e Jonatas</t>
+  </si>
+  <si>
+    <t>Saul</t>
+  </si>
+  <si>
+    <t>Carpinteiro</t>
+  </si>
+  <si>
+    <t>Monte Sinai</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Multiplicou pães e peixes</t>
+  </si>
+  <si>
+    <t>Um terremoto</t>
+  </si>
+  <si>
+    <t>Natã</t>
+  </si>
+  <si>
+    <t>Êxodo</t>
+  </si>
+  <si>
+    <t>Ilíada</t>
+  </si>
+  <si>
+    <t>3 dias</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Moisés e Arão</t>
+  </si>
+  <si>
+    <t>Salomão</t>
+  </si>
+  <si>
+    <t>Pastor de ovelhas</t>
+  </si>
+  <si>
+    <t>Monte Carmelo</t>
+  </si>
+  <si>
+    <t>Joquebede</t>
+  </si>
+  <si>
+    <t>Andou sobre as águas</t>
+  </si>
+  <si>
+    <t>Arão</t>
+  </si>
+  <si>
+    <t>Noé</t>
+  </si>
+  <si>
+    <t>Uma tempestade</t>
+  </si>
+  <si>
+    <t>Abner</t>
+  </si>
+  <si>
+    <t>Levítico</t>
+  </si>
+  <si>
+    <t>Odisseia</t>
+  </si>
+  <si>
+    <t>4 dias</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Pedro e Paulo</t>
+  </si>
+  <si>
+    <t>Ferreiro</t>
+  </si>
+  <si>
+    <t>Ezequiel</t>
+  </si>
+  <si>
+    <t>Monte Tabor</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Transformou água em vinho</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Rei Davi</t>
   </si>
   <si>
+    <t>Queda de Jerusalém</t>
+  </si>
+  <si>
+    <t>Livros da Bíblia</t>
+  </si>
+  <si>
+    <t>Milagres de Jesus</t>
+  </si>
+  <si>
     <t>Fácil</t>
+  </si>
+  <si>
+    <t>Médio</t>
+  </si>
+  <si>
+    <t>Difícil</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Quem foi lançado na cova dos leões?</t>
+  </si>
+  <si>
+    <t>Abraão</t>
+  </si>
+  <si>
+    <t>Adão</t>
+  </si>
+  <si>
+    <t>Quem foi o primeiro homem criado por Deus?</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Quantos livros há na Bíblia?</t>
+  </si>
+  <si>
+    <t>Deus</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>Quem foi a mãe de Jesus?</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
+    <t>Judas Iscariotes</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Qual o nome do discípulo que traiu Jesus?</t>
+  </si>
+  <si>
+    <t>Reis de Israel</t>
+  </si>
+  <si>
+    <t>Bíblia</t>
+  </si>
+  <si>
+    <t>Criação</t>
+  </si>
+  <si>
+    <t>Apostolos</t>
+  </si>
+  <si>
+    <t>Profetas</t>
+  </si>
+  <si>
+    <t>Enoque</t>
+  </si>
+  <si>
+    <t>Eliseu</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Quem foi levado ao céu num redemoinho?</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Quantos anos o povo de Israel peregrinou no deserto?</t>
+  </si>
+  <si>
+    <t>Débora</t>
+  </si>
+  <si>
+    <t>Sansão</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>Quem foi o último dos juízes de Israel?</t>
+  </si>
+  <si>
+    <t>Aarão</t>
+  </si>
+  <si>
+    <t>Quem interpretou os sonhos do Faraó no Egito?</t>
+  </si>
+  <si>
+    <t>Quantos dias e noites choveu durante o dilúvio?</t>
+  </si>
+  <si>
+    <t>Morte dos primogênitos</t>
+  </si>
+  <si>
+    <t>Trevas</t>
+  </si>
+  <si>
+    <t>Rãs</t>
+  </si>
+  <si>
+    <t>Gafanhotos</t>
+  </si>
+  <si>
+    <t>Qual foi a última praga do Egito?</t>
+  </si>
+  <si>
+    <t>Quem foi o profeta que confrontou os profetas de Baal?</t>
+  </si>
+  <si>
+    <t>Eu sou o caminho, a verdade e a vida.</t>
+  </si>
+  <si>
+    <t>Ora, vós sois o corpo de Cristo.</t>
+  </si>
+  <si>
+    <t>Deus é amor.</t>
+  </si>
+  <si>
+    <t>Jesus chorou.</t>
+  </si>
+  <si>
+    <t>Qual é o menor versículo da Bíblia?</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Qual é o primeiro livro do Novo Testamento?</t>
+  </si>
+  <si>
+    <t>Quem liderou a construção do Templo de Jerusalém?</t>
+  </si>
+  <si>
+    <t>Tomé</t>
+  </si>
+  <si>
+    <t>Tiago</t>
+  </si>
+  <si>
+    <t>Quem foi o traidor de Jesus?</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Qual apóstolo negou Jesus três vezes?</t>
+  </si>
+  <si>
+    <t>Quem escreveu o livro de Salmos?</t>
+  </si>
+  <si>
+    <t>Quem foi o profeta que escreveu sobre a queda de Jerusalém?</t>
   </si>
 </sst>
 </file>
@@ -435,11 +864,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -484,25 +911,1013 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
